--- a/biology/Botanique/Rendez-vous_aux_jardins/Rendez-vous_aux_jardins.xlsx
+++ b/biology/Botanique/Rendez-vous_aux_jardins/Rendez-vous_aux_jardins.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rendez-vous aux jardins est une manifestation française annuelle organisée par le ministère de la Culture et de la Communication et le Comité des parcs et jardins[1] sur le thème des jardins depuis 2003. Elle se déroule le premier week-end de juin.
-L'édition 2018 (1er, 2 et 3 juin) a pour thème « L'Europe des jardins ». Cette thématique a été choisie pour cadrer avec l'Année européenne du patrimoine culturel[2],[3]. Elle est présentée comme la première édition européenne[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rendez-vous aux jardins est une manifestation française annuelle organisée par le ministère de la Culture et de la Communication et le Comité des parcs et jardins sur le thème des jardins depuis 2003. Elle se déroule le premier week-end de juin.
+L'édition 2018 (1er, 2 et 3 juin) a pour thème « L'Europe des jardins ». Cette thématique a été choisie pour cadrer avec l'Année européenne du patrimoine culturel,. Elle est présentée comme la première édition européenne.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Objectifs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette manifestation a été créée pour faire découvrir « la richesse et la diversité des parcs et jardins » avec une mise en valeur artistique et culturelle[1].
-Elle vise à « sensibiliser les visiteurs aux actions mises en œuvre afin de faire connaître, conserver, restaurer, créer des jardins et former les jardiniers et paysagistes[1] ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette manifestation a été créée pour faire découvrir « la richesse et la diversité des parcs et jardins » avec une mise en valeur artistique et culturelle.
+Elle vise à « sensibiliser les visiteurs aux actions mises en œuvre afin de faire connaître, conserver, restaurer, créer des jardins et former les jardiniers et paysagistes ».
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le ministère de la Culture et de la Communication coordonne l'événement au niveau national et délègue aux directions régionales des Affaires culturelles la gestion et la promotion de l'événement dans les régions[1].
-Un appel est lancé aux propriétaires de jardins, publics comme privés, pour permettre l'accès, mais également aux professionnels et associations pour animer les jardins[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le ministère de la Culture et de la Communication coordonne l'événement au niveau national et délègue aux directions régionales des Affaires culturelles la gestion et la promotion de l'événement dans les régions.
+Un appel est lancé aux propriétaires de jardins, publics comme privés, pour permettre l'accès, mais également aux professionnels et associations pour animer les jardins.
 Le vendredi est plus particulièrement dédié aux opérations à destination du public scolaire.
 </t>
         </is>
@@ -577,9 +593,11 @@
           <t>Participation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nombre de jardins ouverts au public augmente chaque année  passe de 930 en 2003 à presque 2 000 en 2008 et plus de 2 300 en 2017 avec 3 500 animations[1]. Cette année-là, près de 2 millions de visiteurs ont été accueillis dans les différents jardins[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nombre de jardins ouverts au public augmente chaque année  passe de 930 en 2003 à presque 2 000 en 2008 et plus de 2 300 en 2017 avec 3 500 animations. Cette année-là, près de 2 millions de visiteurs ont été accueillis dans les différents jardins.
 </t>
         </is>
       </c>
